--- a/julia/RFFO/all_instances_result_RFFO_Zkt.xlsx
+++ b/julia/RFFO/all_instances_result_RFFO_Zkt.xlsx
@@ -563,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0082</v>
+        <v>0.0075</v>
       </c>
       <c r="E2">
         <v>15460.0</v>
@@ -572,10 +572,10 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.0045</v>
+        <v>0.0053</v>
       </c>
       <c r="H2">
-        <v>0.0127</v>
+        <v>0.012799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -589,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.0389</v>
+        <v>0.0626</v>
       </c>
       <c r="E3">
         <v>20440.0</v>
@@ -598,10 +598,10 @@
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0.0273</v>
+        <v>0.0326</v>
       </c>
       <c r="H3">
-        <v>0.0662</v>
+        <v>0.0952</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0.0101</v>
+        <v>0.0116</v>
       </c>
       <c r="E4">
         <v>19552.0</v>
@@ -624,10 +624,10 @@
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0.0096</v>
+        <v>0.0108</v>
       </c>
       <c r="H4">
-        <v>0.0197</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -641,7 +641,7 @@
         <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0.0161</v>
+        <v>0.0132</v>
       </c>
       <c r="E5">
         <v>18307.0</v>
@@ -650,10 +650,10 @@
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0.0547</v>
+        <v>0.0065</v>
       </c>
       <c r="H5">
-        <v>0.0708</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -667,7 +667,7 @@
         <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.0194</v>
+        <v>0.0186</v>
       </c>
       <c r="E6">
         <v>20538.4</v>
@@ -676,10 +676,10 @@
         <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0.0217</v>
+        <v>0.0239</v>
       </c>
       <c r="H6">
-        <v>0.0411</v>
+        <v>0.042499999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -693,7 +693,7 @@
         <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0.0062</v>
+        <v>0.0078</v>
       </c>
       <c r="E7">
         <v>17449.0</v>
@@ -702,10 +702,10 @@
         <v>0.0</v>
       </c>
       <c r="G7">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
       <c r="H7">
-        <v>0.0112</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -719,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0.0125</v>
+        <v>0.0143</v>
       </c>
       <c r="E8">
         <v>18948.48</v>
@@ -728,10 +728,10 @@
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>0.0139</v>
+        <v>0.0156</v>
       </c>
       <c r="H8">
-        <v>0.0264</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -745,7 +745,7 @@
         <v>0.0</v>
       </c>
       <c r="D9">
-        <v>0.0105</v>
+        <v>0.0109</v>
       </c>
       <c r="E9">
         <v>21885.0</v>
@@ -754,10 +754,10 @@
         <v>0.0</v>
       </c>
       <c r="G9">
-        <v>0.0065</v>
+        <v>0.0075</v>
       </c>
       <c r="H9">
-        <v>0.017</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -771,7 +771,7 @@
         <v>0.72</v>
       </c>
       <c r="D10">
-        <v>0.0355</v>
+        <v>0.0488</v>
       </c>
       <c r="E10">
         <v>22656.4</v>
@@ -780,10 +780,10 @@
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>0.0338</v>
+        <v>0.0457</v>
       </c>
       <c r="H10">
-        <v>0.0693</v>
+        <v>0.0945</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -797,7 +797,7 @@
         <v>0.84</v>
       </c>
       <c r="D11">
-        <v>0.0253</v>
+        <v>0.0178</v>
       </c>
       <c r="E11">
         <v>19269.88</v>
@@ -806,10 +806,10 @@
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>0.0183</v>
+        <v>0.0382</v>
       </c>
       <c r="H11">
-        <v>0.0436</v>
+        <v>0.055999999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -823,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="D12">
-        <v>0.1215</v>
+        <v>0.2323</v>
       </c>
       <c r="E12">
         <v>34436.85</v>
@@ -832,10 +832,10 @@
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>0.079</v>
+        <v>0.0625</v>
       </c>
       <c r="H12">
-        <v>0.2005</v>
+        <v>0.2948</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -849,7 +849,7 @@
         <v>0.39</v>
       </c>
       <c r="D13">
-        <v>0.3566</v>
+        <v>0.5232</v>
       </c>
       <c r="E13">
         <v>38300.91</v>
@@ -858,10 +858,10 @@
         <v>0.11</v>
       </c>
       <c r="G13">
-        <v>0.301</v>
+        <v>0.3975</v>
       </c>
       <c r="H13">
-        <v>0.6576</v>
+        <v>0.9207000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -875,7 +875,7 @@
         <v>0.0</v>
       </c>
       <c r="D14">
-        <v>0.2114</v>
+        <v>0.2043</v>
       </c>
       <c r="E14">
         <v>41255.23</v>
@@ -884,10 +884,10 @@
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>0.0849</v>
+        <v>0.0736</v>
       </c>
       <c r="H14">
-        <v>0.2963</v>
+        <v>0.27790000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="D15">
-        <v>0.1094</v>
+        <v>0.1369</v>
       </c>
       <c r="E15">
         <v>35847.0</v>
@@ -910,10 +910,10 @@
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>0.0519</v>
+        <v>0.0367</v>
       </c>
       <c r="H15">
-        <v>0.1613</v>
+        <v>0.1736</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -921,25 +921,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>39634.0</v>
+        <v>39499.0</v>
       </c>
       <c r="C16">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
-        <v>0.2347</v>
+        <v>0.3663</v>
       </c>
       <c r="E16">
-        <v>39604.0</v>
+        <v>39499.0</v>
       </c>
       <c r="F16">
-        <v>0.27</v>
+        <v>0.0</v>
       </c>
       <c r="G16">
-        <v>0.1546</v>
+        <v>0.0974</v>
       </c>
       <c r="H16">
-        <v>0.3893</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -947,13 +947,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>37401.39</v>
+        <v>37237.66</v>
       </c>
       <c r="C17">
-        <v>0.44</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
-        <v>0.274</v>
+        <v>0.5431</v>
       </c>
       <c r="E17">
         <v>37237.66</v>
@@ -962,10 +962,10 @@
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>0.2131</v>
+        <v>0.2585</v>
       </c>
       <c r="H17">
-        <v>0.48710000000000003</v>
+        <v>0.8016000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -979,7 +979,7 @@
         <v>0.0</v>
       </c>
       <c r="D18">
-        <v>0.2614</v>
+        <v>0.547</v>
       </c>
       <c r="E18">
         <v>36087.56</v>
@@ -988,10 +988,10 @@
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>0.2308</v>
+        <v>0.1933</v>
       </c>
       <c r="H18">
-        <v>0.4922</v>
+        <v>0.7403000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1005,7 +1005,7 @@
         <v>0.31</v>
       </c>
       <c r="D19">
-        <v>0.3426</v>
+        <v>0.5456</v>
       </c>
       <c r="E19">
         <v>35962.98</v>
@@ -1014,10 +1014,10 @@
         <v>0.31</v>
       </c>
       <c r="G19">
-        <v>0.2631</v>
+        <v>0.2935</v>
       </c>
       <c r="H19">
-        <v>0.6057</v>
+        <v>0.8391</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1025,13 +1025,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>36985.0</v>
+        <v>36912.0</v>
       </c>
       <c r="C20">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
-        <v>0.2534</v>
+        <v>0.3144</v>
       </c>
       <c r="E20">
         <v>36894.1</v>
@@ -1040,10 +1040,10 @@
         <v>0.0</v>
       </c>
       <c r="G20">
-        <v>0.1067</v>
+        <v>0.0922</v>
       </c>
       <c r="H20">
-        <v>0.36010000000000003</v>
+        <v>0.4066</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1051,25 +1051,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>42513.16</v>
+        <v>41932.44</v>
       </c>
       <c r="C21">
-        <v>1.38</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
-        <v>0.3476</v>
+        <v>0.1483</v>
       </c>
       <c r="E21">
-        <v>42332.16</v>
+        <v>41932.44</v>
       </c>
       <c r="F21">
-        <v>0.95</v>
+        <v>0.0</v>
       </c>
       <c r="G21">
-        <v>0.1146</v>
+        <v>0.217</v>
       </c>
       <c r="H21">
-        <v>0.4622</v>
+        <v>0.36529999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1083,7 +1083,7 @@
         <v>0.0</v>
       </c>
       <c r="D22">
-        <v>0.0677</v>
+        <v>0.0517</v>
       </c>
       <c r="E22">
         <v>65821.0</v>
@@ -1092,10 +1092,10 @@
         <v>0.0</v>
       </c>
       <c r="G22">
-        <v>0.0382</v>
+        <v>0.028</v>
       </c>
       <c r="H22">
-        <v>0.1059</v>
+        <v>0.07970000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1109,7 +1109,7 @@
         <v>0.0</v>
       </c>
       <c r="D23">
-        <v>0.0392</v>
+        <v>0.0199</v>
       </c>
       <c r="E23">
         <v>71523.0</v>
@@ -1118,10 +1118,10 @@
         <v>0.0</v>
       </c>
       <c r="G23">
-        <v>0.0245</v>
+        <v>0.0192</v>
       </c>
       <c r="H23">
-        <v>0.0637</v>
+        <v>0.039099999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1135,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="D24">
-        <v>0.0479</v>
+        <v>0.0542</v>
       </c>
       <c r="E24">
         <v>72914.0</v>
@@ -1144,10 +1144,10 @@
         <v>0.0</v>
       </c>
       <c r="G24">
-        <v>0.0388</v>
+        <v>0.0264</v>
       </c>
       <c r="H24">
-        <v>0.0867</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1161,7 +1161,7 @@
         <v>0.31</v>
       </c>
       <c r="D25">
-        <v>0.2668</v>
+        <v>0.3702</v>
       </c>
       <c r="E25">
         <v>77234.8</v>
@@ -1170,10 +1170,10 @@
         <v>0.0</v>
       </c>
       <c r="G25">
-        <v>0.2309</v>
+        <v>0.4029</v>
       </c>
       <c r="H25">
-        <v>0.4977</v>
+        <v>0.7730999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="D26">
-        <v>0.0426</v>
+        <v>0.0211</v>
       </c>
       <c r="E26">
         <v>64474.0</v>
@@ -1196,10 +1196,10 @@
         <v>0.0</v>
       </c>
       <c r="G26">
-        <v>0.0251</v>
+        <v>0.0158</v>
       </c>
       <c r="H26">
-        <v>0.0677</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1213,7 +1213,7 @@
         <v>0.0</v>
       </c>
       <c r="D27">
-        <v>0.0731</v>
+        <v>0.1193</v>
       </c>
       <c r="E27">
         <v>74472.0</v>
@@ -1222,10 +1222,10 @@
         <v>0.0</v>
       </c>
       <c r="G27">
-        <v>0.0569</v>
+        <v>0.0448</v>
       </c>
       <c r="H27">
-        <v>0.13</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1239,7 +1239,7 @@
         <v>0.0</v>
       </c>
       <c r="D28">
-        <v>0.0295</v>
+        <v>0.0168</v>
       </c>
       <c r="E28">
         <v>64012.0</v>
@@ -1248,10 +1248,10 @@
         <v>0.0</v>
       </c>
       <c r="G28">
-        <v>0.0195</v>
+        <v>0.0116</v>
       </c>
       <c r="H28">
-        <v>0.049</v>
+        <v>0.028399999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1265,7 +1265,7 @@
         <v>0.0</v>
       </c>
       <c r="D29">
-        <v>0.0289</v>
+        <v>0.0237</v>
       </c>
       <c r="E29">
         <v>67394.0</v>
@@ -1274,10 +1274,10 @@
         <v>0.0</v>
       </c>
       <c r="G29">
-        <v>0.0175</v>
+        <v>0.0099</v>
       </c>
       <c r="H29">
-        <v>0.0464</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1291,7 +1291,7 @@
         <v>0.01</v>
       </c>
       <c r="D30">
-        <v>0.0669</v>
+        <v>0.0314</v>
       </c>
       <c r="E30">
         <v>66733.0</v>
@@ -1300,10 +1300,10 @@
         <v>0.0</v>
       </c>
       <c r="G30">
-        <v>0.0525</v>
+        <v>0.0268</v>
       </c>
       <c r="H30">
-        <v>0.1194</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1317,7 +1317,7 @@
         <v>0.0</v>
       </c>
       <c r="D31">
-        <v>0.0337</v>
+        <v>0.0333</v>
       </c>
       <c r="E31">
         <v>69388.0</v>
@@ -1326,10 +1326,10 @@
         <v>0.0</v>
       </c>
       <c r="G31">
-        <v>0.0304</v>
+        <v>0.0164</v>
       </c>
       <c r="H31">
-        <v>0.0641</v>
+        <v>0.04970000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1337,25 +1337,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>131740.16</v>
+        <v>131695.0</v>
       </c>
       <c r="C32">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
       <c r="D32">
-        <v>0.4348</v>
+        <v>1.0192</v>
       </c>
       <c r="E32">
-        <v>131740.16</v>
+        <v>131695.0</v>
       </c>
       <c r="F32">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
       <c r="G32">
-        <v>0.1353</v>
+        <v>0.0969</v>
       </c>
       <c r="H32">
-        <v>0.5701</v>
+        <v>1.1161</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1363,13 +1363,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>132358.0</v>
+        <v>132328.0</v>
       </c>
       <c r="C33">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="D33">
-        <v>0.4761</v>
+        <v>0.2933</v>
       </c>
       <c r="E33">
         <v>132328.0</v>
@@ -1378,10 +1378,10 @@
         <v>0.0</v>
       </c>
       <c r="G33">
-        <v>0.1502</v>
+        <v>0.2053</v>
       </c>
       <c r="H33">
-        <v>0.6263000000000001</v>
+        <v>0.49860000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1389,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>132172.0</v>
+        <v>132133.0</v>
       </c>
       <c r="C34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D34">
-        <v>0.363</v>
+        <v>0.6965</v>
       </c>
       <c r="E34">
-        <v>132172.0</v>
+        <v>132133.0</v>
       </c>
       <c r="F34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G34">
-        <v>0.2291</v>
+        <v>0.1972</v>
       </c>
       <c r="H34">
-        <v>0.5921</v>
+        <v>0.8936999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1415,13 +1415,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>131007.0</v>
+        <v>130755.0</v>
       </c>
       <c r="C35">
-        <v>0.19</v>
+        <v>0.0</v>
       </c>
       <c r="D35">
-        <v>1.0059</v>
+        <v>0.6921</v>
       </c>
       <c r="E35">
         <v>130755.0</v>
@@ -1430,10 +1430,10 @@
         <v>0.0</v>
       </c>
       <c r="G35">
-        <v>0.1721</v>
+        <v>0.0941</v>
       </c>
       <c r="H35">
-        <v>1.178</v>
+        <v>0.7862</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1441,13 +1441,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>126575.0</v>
+        <v>126478.0</v>
       </c>
       <c r="C36">
-        <v>0.07</v>
+        <v>-0.01</v>
       </c>
       <c r="D36">
-        <v>0.2701</v>
+        <v>0.3996</v>
       </c>
       <c r="E36">
         <v>126478.0</v>
@@ -1456,10 +1456,10 @@
         <v>-0.01</v>
       </c>
       <c r="G36">
-        <v>0.1081</v>
+        <v>0.0598</v>
       </c>
       <c r="H36">
-        <v>0.3782</v>
+        <v>0.45940000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1467,25 +1467,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>131482.0</v>
+        <v>131477.76</v>
       </c>
       <c r="C37">
         <v>0.02</v>
       </c>
       <c r="D37">
-        <v>0.448</v>
+        <v>0.8138</v>
       </c>
       <c r="E37">
-        <v>131482.0</v>
+        <v>131477.76</v>
       </c>
       <c r="F37">
         <v>0.02</v>
       </c>
       <c r="G37">
-        <v>0.2446</v>
+        <v>0.3209</v>
       </c>
       <c r="H37">
-        <v>0.6926</v>
+        <v>1.1347</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1499,7 +1499,7 @@
         <v>0.0</v>
       </c>
       <c r="D38">
-        <v>0.8975</v>
+        <v>0.4632</v>
       </c>
       <c r="E38">
         <v>135600.0</v>
@@ -1508,10 +1508,10 @@
         <v>0.0</v>
       </c>
       <c r="G38">
-        <v>0.1381</v>
+        <v>0.0887</v>
       </c>
       <c r="H38">
-        <v>1.0356</v>
+        <v>0.5519000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1519,13 +1519,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>129571.0</v>
+        <v>129625.2</v>
       </c>
       <c r="C39">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="D39">
-        <v>0.3669</v>
+        <v>0.6349</v>
       </c>
       <c r="E39">
         <v>129495.0</v>
@@ -1534,10 +1534,10 @@
         <v>0.0</v>
       </c>
       <c r="G39">
-        <v>0.1768</v>
+        <v>0.1704</v>
       </c>
       <c r="H39">
-        <v>0.5437000000000001</v>
+        <v>0.8053</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1545,25 +1545,25 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>132536.0</v>
+        <v>132689.0</v>
       </c>
       <c r="C40">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="D40">
-        <v>0.3202</v>
+        <v>2.6458</v>
       </c>
       <c r="E40">
-        <v>132536.0</v>
+        <v>132689.0</v>
       </c>
       <c r="F40">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="G40">
-        <v>0.0767</v>
+        <v>0.0692</v>
       </c>
       <c r="H40">
-        <v>0.3969</v>
+        <v>2.715</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1577,7 +1577,7 @@
         <v>0.0</v>
       </c>
       <c r="D41">
-        <v>0.1944</v>
+        <v>0.0894</v>
       </c>
       <c r="E41">
         <v>130459.41</v>
@@ -1586,10 +1586,10 @@
         <v>0.0</v>
       </c>
       <c r="G41">
-        <v>0.0776</v>
+        <v>0.0445</v>
       </c>
       <c r="H41">
-        <v>0.272</v>
+        <v>0.1339</v>
       </c>
     </row>
   </sheetData>
